--- a/imdb_DB.xlsx
+++ b/imdb_DB.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\guvi\tasks1\35\imdb_DB\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13479A3-682B-498E-9FE4-AAF27582A202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,11 +24,337 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="100">
+  <si>
+    <t>Ant Man</t>
+  </si>
+  <si>
+    <t>Avengers</t>
+  </si>
+  <si>
+    <t>Inglourious Basterds</t>
+  </si>
+  <si>
+    <t>Django Unchained</t>
+  </si>
+  <si>
+    <t>Pulp Fiction</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Release Year</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Runtine</t>
+  </si>
+  <si>
+    <t>Director ID(FK)</t>
+  </si>
+  <si>
+    <t>Movie ID (pk)</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>MOVIES TABLE</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>MEDIA TABLE</t>
+  </si>
+  <si>
+    <t>ID (pk)</t>
+  </si>
+  <si>
+    <t>Movie ID (fk)</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Media Type</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>/img</t>
+  </si>
+  <si>
+    <t>/vid</t>
+  </si>
+  <si>
+    <t>GERES TABLE</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Drama</t>
+  </si>
+  <si>
+    <t>Crime</t>
+  </si>
+  <si>
+    <t>Thriller</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>SciFi</t>
+  </si>
+  <si>
+    <t>MOVIE GENRES TABLE</t>
+  </si>
+  <si>
+    <t>ID()</t>
+  </si>
+  <si>
+    <t>Movie ID(fk)</t>
+  </si>
+  <si>
+    <t>Genre ID(fk)</t>
+  </si>
+  <si>
+    <t>REVIEWS TABLE</t>
+  </si>
+  <si>
+    <t>ID(pk)</t>
+  </si>
+  <si>
+    <t>User ID (fk)</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>USER TABLE</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Jon</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Tony</t>
+  </si>
+  <si>
+    <t>Derek</t>
+  </si>
+  <si>
+    <t>tom@gmail.com</t>
+  </si>
+  <si>
+    <t>jon@gmail.com</t>
+  </si>
+  <si>
+    <t>jane@gmail.com</t>
+  </si>
+  <si>
+    <t>tony@gmail.com</t>
+  </si>
+  <si>
+    <t>derek@gmail.com</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Very Good</t>
+  </si>
+  <si>
+    <t>Interesing</t>
+  </si>
+  <si>
+    <t>Entertaining</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>ARTIST TABLE</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Jamie Foxx</t>
+  </si>
+  <si>
+    <t>Samuel L. Jackson</t>
+  </si>
+  <si>
+    <t>Paul Rudd</t>
+  </si>
+  <si>
+    <t>Evangeline Lilly</t>
+  </si>
+  <si>
+    <t>Kerry Washington</t>
+  </si>
+  <si>
+    <t>Robert Downey Jr.</t>
+  </si>
+  <si>
+    <t>Chris Evans</t>
+  </si>
+  <si>
+    <t>Scarlett Johansson</t>
+  </si>
+  <si>
+    <t>Brad Pitt</t>
+  </si>
+  <si>
+    <t>Michael Fassbender</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>SKILLS TABLE</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Acting</t>
+  </si>
+  <si>
+    <t>Directing</t>
+  </si>
+  <si>
+    <t>Producing</t>
+  </si>
+  <si>
+    <t>Writing</t>
+  </si>
+  <si>
+    <t>ARTIST SKILLS TABLE</t>
+  </si>
+  <si>
+    <t>Artist ID(fk)</t>
+  </si>
+  <si>
+    <t>Skill ID (fk)</t>
+  </si>
+  <si>
+    <t>ROLES TABLE</t>
+  </si>
+  <si>
+    <t>Actor</t>
+  </si>
+  <si>
+    <t>Actress</t>
+  </si>
+  <si>
+    <t>Producesr</t>
+  </si>
+  <si>
+    <t>Side Actor</t>
+  </si>
+  <si>
+    <t>Side Actress</t>
+  </si>
+  <si>
+    <t>Writer</t>
+  </si>
+  <si>
+    <t>ID (PK)</t>
+  </si>
+  <si>
+    <t>Artist ID (fk)</t>
+  </si>
+  <si>
+    <t>Role ID (fk)</t>
+  </si>
+  <si>
+    <t>MOVIE ARTISTS ROLE TABLE</t>
+  </si>
+  <si>
+    <t>In the realm of underworld, a series of incidents intertwines the lives of two Los Angeles mobsters, a gangster's wife, a boxer and two small-time criminals.</t>
+  </si>
+  <si>
+    <t>Ant-Man and the Wasp find themselves exploring the Quantum Realm, interacting with strange new creatures and embarking on an adventure that pushes them beyond the limits of what they thought was possible.</t>
+  </si>
+  <si>
+    <t>Nick Fury is compelled to launch the Avengers Initiative when Loki poses a threat to planet Earth. His squad of superheroes put their minds together to accomplish the task.</t>
+  </si>
+  <si>
+    <t>A few Jewish soldiers are on an undercover mission to bring down the Nazi government and put an end to the war. Meanwhile, a woman wants to avenge the death of her family from a German officer.</t>
+  </si>
+  <si>
+    <t>When Django, a slave, is freed, he joins forces with a bounty hunter to rescue his wife, who has been enslaved by Calvin, a hard-hearted plantation owner.</t>
+  </si>
+  <si>
+    <t>Quentin Tarantino</t>
+  </si>
+  <si>
+    <t>Joss Whedon</t>
+  </si>
+  <si>
+    <t>Peyton Reed</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -46,16 +378,142 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="38">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -66,6 +524,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB1AB2F5-2334-442D-9DF7-7E17609322D2}" name="Table1" displayName="Table1" ref="B3:G9" totalsRowShown="0">
+  <autoFilter ref="B3:G9" xr:uid="{CB1AB2F5-2334-442D-9DF7-7E17609322D2}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{1EEF758B-E3DE-436D-91FE-5376F9BF8D41}" name="Movie ID (pk)" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{2A0EE61E-5364-45BC-9420-A7A15AF44AA1}" name="Title" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{DA4E3A52-68D7-498F-9431-ADDFA99494F9}" name="Release Year" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{11FF85AF-D1DD-46E2-888F-9440D71F5617}" name="Description" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{5595BA6C-4214-4063-ACB6-812405FCCF8F}" name="Runtine" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{3CF750ED-346D-4A88-93BA-C082A9B56045}" name="Director ID(FK)" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4FAA4087-30BB-488A-9C75-E74168F660BC}" name="Table11" displayName="Table11" ref="B103:C110" totalsRowShown="0">
+  <autoFilter ref="B103:C110" xr:uid="{4FAA4087-30BB-488A-9C75-E74168F660BC}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{5626B7B8-BA67-4E51-8C38-D61D9A07A9D0}" name="ID (pk)" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{AB081E5B-44A8-4CDF-8752-9AC1A811685E}" name="Name" dataDxfId="25"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{93A851F6-5654-4E36-BF33-28C9C7755ABC}" name="Table12" displayName="Table12" ref="B114:E127" totalsRowShown="0">
+  <autoFilter ref="B114:E127" xr:uid="{93A851F6-5654-4E36-BF33-28C9C7755ABC}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{8B16C3EB-93F4-4317-AAD2-9704338E0D7D}" name="ID (PK)" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{2A14A0D7-D3DC-4212-9BE0-029D847EBF7B}" name="Movie ID (fk)" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{B4D96020-C47A-4C52-941F-607F9B6F9E36}" name="Artist ID (fk)" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{6F2B6C22-3CF5-40EF-8AAD-B4F3B25EC732}" name="Role ID (fk)" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CA2FC419-763D-4F93-8D69-B027F4E8B54D}" name="Table2" displayName="Table2" ref="B12:E22" totalsRowShown="0">
+  <autoFilter ref="B12:E22" xr:uid="{CA2FC419-763D-4F93-8D69-B027F4E8B54D}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{353CAD33-01BD-4F6D-B792-5F699BC3F864}" name="ID (pk)" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{84BFC39E-DD3C-4FF6-81F2-6D5C0E48D87D}" name="Movie ID (fk)" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{7E001355-C9A3-47D6-B269-EDB336165D65}" name="Media Type" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{620DFA1E-3DD2-4DC2-8863-555824646F73}" name="URL" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0D50C201-AD28-419E-AA57-D12318096B91}" name="Table3" displayName="Table3" ref="B26:C32" totalsRowShown="0">
+  <autoFilter ref="B26:C32" xr:uid="{0D50C201-AD28-419E-AA57-D12318096B91}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{5FB867C9-CF7B-450D-B2D8-8A1086BD9B21}" name="Column1" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{8ED5B02A-A789-4638-AC04-63E39E010AC1}" name="Name" dataDxfId="34"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D2F39710-F9C6-4AC2-9744-55A05F8F77E2}" name="Table4" displayName="Table4" ref="B36:D47" totalsRowShown="0">
+  <autoFilter ref="B36:D47" xr:uid="{D2F39710-F9C6-4AC2-9744-55A05F8F77E2}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8C57511D-6AE4-4652-A43E-F7F2BB9A8BBF}" name="ID()" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{67A20E9E-E9BD-4327-A20B-47C9B1A470F2}" name="Movie ID(fk)" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{D1BD08CF-D933-4BB6-83E6-57B295AE654B}" name="Genre ID(fk)" dataDxfId="20"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F53760CF-8563-4AE8-98B9-1C47C7D827A4}" name="Table6" displayName="Table6" ref="B50:F57" totalsRowShown="0">
+  <autoFilter ref="B50:F57" xr:uid="{F53760CF-8563-4AE8-98B9-1C47C7D827A4}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{15D84103-06BF-4F86-AEE3-7CD27A306516}" name="ID(pk)" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{7DE73829-EBE9-4DA2-BA82-5AEBFCFDC9C7}" name="Movie ID(fk)" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{60F10884-88E5-468E-8CF7-5F152F8FF342}" name="User ID (fk)" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{AA93CD29-9B00-4313-87A8-B8A0280DB370}" name="Rating" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{1CC32763-47C5-4DCC-B4BA-DE6F989A30CE}" name="Comment" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A98B48C3-94F7-49D8-AE43-D831A02D0B8D}" name="Table7" displayName="Table7" ref="B61:E66" totalsRowShown="0">
+  <autoFilter ref="B61:E66" xr:uid="{A98B48C3-94F7-49D8-AE43-D831A02D0B8D}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{48265086-4CDA-46A3-968D-40AADE4F9339}" name="ID(pk)" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{BA098A80-B77B-4AC1-97CA-4A3CFC6ACCFB}" name="Name" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{475B1FB3-A1B3-4861-81D4-7243BB536BAE}" name="Email" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{D4127CB2-A8A7-442B-A564-728D308F54ED}" name="Password" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{8A83714B-EC0E-44E4-9131-A78DD6F80336}" name="Table8" displayName="Table8" ref="B70:D80" totalsRowShown="0">
+  <autoFilter ref="B70:D80" xr:uid="{8A83714B-EC0E-44E4-9131-A78DD6F80336}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{48AF6828-3CC4-4EF6-AC72-62CA6948BE4D}" name="ID(pk)" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{B7ABF369-2566-4360-93F6-71FD5C388AA3}" name="Name" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{84F92F27-D9FF-47BD-AE54-FC6AD49C6E72}" name="Gender" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{AD180B27-69BC-426D-9033-35356E023814}" name="Table9" displayName="Table9" ref="B84:C88" totalsRowShown="0">
+  <autoFilter ref="B84:C88" xr:uid="{AD180B27-69BC-426D-9033-35356E023814}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{EFD4A6C4-A247-4F81-90E1-16D99C104D24}" name="ID (pk)" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{2B7CEB4E-063F-49CD-BA21-32E15BD1397A}" name="Skill" dataDxfId="28"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{29503782-3084-4221-9AD8-AF8554725460}" name="Table10" displayName="Table10" ref="B91:D100" totalsRowShown="0">
+  <autoFilter ref="B91:D100" xr:uid="{29503782-3084-4221-9AD8-AF8554725460}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{BF9312CE-8ED2-475E-8497-0E7A16924EFD}" name="ID (pk)" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{06A681C5-588D-42DC-89A8-E37AA37F15D0}" name="Artist ID(fk)" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{3BCD464E-A8DA-4527-8D16-659BBA6DDE3E}" name="Skill ID (fk)" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +925,1353 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:G127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G106" sqref="G106"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="17.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.08984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1796875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="21" x14ac:dyDescent="0.5">
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1994</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="1">
+        <v>184</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="1">
+        <v>192</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2012</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="1">
+        <v>193</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2009</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="1">
+        <v>204</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2013</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="1">
+        <v>190</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="21" x14ac:dyDescent="0.5">
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B16" s="1">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="1">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" s="1">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" s="1">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" s="1">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21" s="1">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B22" s="1">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="21" x14ac:dyDescent="0.5">
+      <c r="B25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B28" s="1">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B29" s="1">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B30" s="1">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B31" s="1">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B32" s="1">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="21" x14ac:dyDescent="0.5">
+      <c r="B35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B38" s="1">
+        <v>2</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B39" s="1">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B40" s="1">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B41" s="1">
+        <v>5</v>
+      </c>
+      <c r="C41" s="1">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B42" s="1">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B43" s="1">
+        <v>7</v>
+      </c>
+      <c r="C43" s="1">
+        <v>4</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B44" s="1">
+        <v>8</v>
+      </c>
+      <c r="C44" s="1">
+        <v>4</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B45" s="1">
+        <v>9</v>
+      </c>
+      <c r="C45" s="1">
+        <v>4</v>
+      </c>
+      <c r="D45" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B46" s="1">
+        <v>10</v>
+      </c>
+      <c r="C46" s="1">
+        <v>5</v>
+      </c>
+      <c r="D46" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B47" s="1">
+        <v>11</v>
+      </c>
+      <c r="C47" s="1">
+        <v>5</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="B49" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B50" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1">
+        <v>8</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B52" s="1">
+        <v>2</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <v>2</v>
+      </c>
+      <c r="E52" s="1">
+        <v>7</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B53" s="1">
+        <v>4</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1">
+        <v>3</v>
+      </c>
+      <c r="E53" s="1">
+        <v>9</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B54" s="1">
+        <v>5</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B55" s="1">
+        <v>6</v>
+      </c>
+      <c r="C55" s="1">
+        <v>3</v>
+      </c>
+      <c r="D55" s="1">
+        <v>4</v>
+      </c>
+      <c r="E55" s="1">
+        <v>6</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B56" s="1">
+        <v>7</v>
+      </c>
+      <c r="C56" s="1">
+        <v>4</v>
+      </c>
+      <c r="D56" s="1">
+        <v>5</v>
+      </c>
+      <c r="E56" s="1">
+        <v>7</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B57" s="1">
+        <v>8</v>
+      </c>
+      <c r="C57" s="1">
+        <v>5</v>
+      </c>
+      <c r="D57" s="1">
+        <v>4</v>
+      </c>
+      <c r="E57" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="B60" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B61" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E62" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B63" s="1">
+        <v>2</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E63" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B64" s="1">
+        <v>3</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E64" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B65" s="1">
+        <v>4</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E65" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B66" s="1">
+        <v>5</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E66" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" ht="21" x14ac:dyDescent="0.5">
+      <c r="B69" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B70" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B71" s="1">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B72" s="1">
+        <v>2</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B73" s="1">
+        <v>3</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B74" s="1">
+        <v>4</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B75" s="1">
+        <v>5</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B76" s="1">
+        <v>6</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B77" s="1">
+        <v>7</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B78" s="1">
+        <v>8</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B79" s="1">
+        <v>9</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B80" s="1">
+        <v>10</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" ht="21" x14ac:dyDescent="0.5">
+      <c r="B83" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B84" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B85" s="1">
+        <v>1</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B86" s="1">
+        <v>2</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B87" s="1">
+        <v>3</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B88" s="1">
+        <v>4</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" ht="21" x14ac:dyDescent="0.5">
+      <c r="B90" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B91" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B92" s="1">
+        <v>1</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B93" s="1">
+        <v>2</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1</v>
+      </c>
+      <c r="D93" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B94" s="1">
+        <v>3</v>
+      </c>
+      <c r="C94" s="1">
+        <v>2</v>
+      </c>
+      <c r="D94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B95" s="1">
+        <v>4</v>
+      </c>
+      <c r="C95" s="1">
+        <v>2</v>
+      </c>
+      <c r="D95" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B96" s="1">
+        <v>5</v>
+      </c>
+      <c r="C96" s="1">
+        <v>3</v>
+      </c>
+      <c r="D96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B97" s="1">
+        <v>6</v>
+      </c>
+      <c r="C97" s="1">
+        <v>3</v>
+      </c>
+      <c r="D97" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B98" s="1">
+        <v>7</v>
+      </c>
+      <c r="C98" s="1">
+        <v>4</v>
+      </c>
+      <c r="D98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B99" s="1">
+        <v>8</v>
+      </c>
+      <c r="C99" s="1">
+        <v>5</v>
+      </c>
+      <c r="D99" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B100" s="1">
+        <v>9</v>
+      </c>
+      <c r="C100" s="1">
+        <v>5</v>
+      </c>
+      <c r="D100" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" ht="21" x14ac:dyDescent="0.5">
+      <c r="B102" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C102" s="3"/>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B103" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B104" s="1">
+        <v>1</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B105" s="1">
+        <v>2</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B106" s="1">
+        <v>3</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B107" s="1">
+        <v>4</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B108" s="1">
+        <v>5</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B109" s="1">
+        <v>6</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B110" s="1">
+        <v>7</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" ht="21" x14ac:dyDescent="0.5">
+      <c r="B113" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B114" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B115" s="1">
+        <v>1</v>
+      </c>
+      <c r="C115" s="1">
+        <v>1</v>
+      </c>
+      <c r="D115" s="1">
+        <v>2</v>
+      </c>
+      <c r="E115" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B116" s="1">
+        <v>2</v>
+      </c>
+      <c r="C116" s="1">
+        <v>1</v>
+      </c>
+      <c r="D116" s="1">
+        <v>2</v>
+      </c>
+      <c r="E116" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B117" s="1">
+        <v>3</v>
+      </c>
+      <c r="C117" s="1">
+        <v>2</v>
+      </c>
+      <c r="D117" s="1">
+        <v>3</v>
+      </c>
+      <c r="E117" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B118" s="1">
+        <v>4</v>
+      </c>
+      <c r="C118" s="1">
+        <v>2</v>
+      </c>
+      <c r="D118" s="1">
+        <v>5</v>
+      </c>
+      <c r="E118" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B119" s="1">
+        <v>5</v>
+      </c>
+      <c r="C119" s="1">
+        <v>3</v>
+      </c>
+      <c r="D119" s="1">
+        <v>6</v>
+      </c>
+      <c r="E119" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B120" s="1">
+        <v>6</v>
+      </c>
+      <c r="C120" s="1">
+        <v>3</v>
+      </c>
+      <c r="D120" s="1">
+        <v>7</v>
+      </c>
+      <c r="E120" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B121" s="1">
+        <v>7</v>
+      </c>
+      <c r="C121" s="1">
+        <v>3</v>
+      </c>
+      <c r="D121" s="1">
+        <v>8</v>
+      </c>
+      <c r="E121" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B122" s="1">
+        <v>8</v>
+      </c>
+      <c r="C122" s="1">
+        <v>3</v>
+      </c>
+      <c r="D122" s="1">
+        <v>6</v>
+      </c>
+      <c r="E122" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B123" s="1">
+        <v>9</v>
+      </c>
+      <c r="C123" s="1">
+        <v>4</v>
+      </c>
+      <c r="D123" s="1">
+        <v>9</v>
+      </c>
+      <c r="E123" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B124" s="1">
+        <v>10</v>
+      </c>
+      <c r="C124" s="1">
+        <v>4</v>
+      </c>
+      <c r="D124" s="1">
+        <v>10</v>
+      </c>
+      <c r="E124" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B125" s="1">
+        <v>11</v>
+      </c>
+      <c r="C125" s="1">
+        <v>4</v>
+      </c>
+      <c r="D125" s="1">
+        <v>9</v>
+      </c>
+      <c r="E125" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B126" s="1">
+        <v>12</v>
+      </c>
+      <c r="C126" s="1">
+        <v>5</v>
+      </c>
+      <c r="D126" s="1">
+        <v>1</v>
+      </c>
+      <c r="E126" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B127" s="1">
+        <v>13</v>
+      </c>
+      <c r="C127" s="1">
+        <v>5</v>
+      </c>
+      <c r="D127" s="1">
+        <v>4</v>
+      </c>
+      <c r="E127" s="1">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B60:E60"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D62" r:id="rId1" xr:uid="{AF19049F-D3E3-412F-830F-6F2C050BF910}"/>
+    <hyperlink ref="D63" r:id="rId2" xr:uid="{06C7E6BB-0133-4A78-AEFD-99628D6FC300}"/>
+    <hyperlink ref="D64" r:id="rId3" xr:uid="{15BE733E-87B3-46D7-A3DF-7AA0B83F0412}"/>
+    <hyperlink ref="D65" r:id="rId4" xr:uid="{487D1FAF-BD18-4FB3-B1A9-1FF5E859883A}"/>
+    <hyperlink ref="D66" r:id="rId5" xr:uid="{DE85E7C2-3F15-493F-B7B6-05BC27BE2D54}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+  <tableParts count="11">
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/imdb_DB.xlsx
+++ b/imdb_DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\guvi\tasks1\35\imdb_DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13479A3-682B-498E-9FE4-AAF27582A202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C35C32-32BE-407A-8960-BA304055A7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="99">
   <si>
     <t>Ant Man</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Movie ID (pk)</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>MOVIES TABLE</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>/vid</t>
   </si>
   <si>
-    <t>GERES TABLE</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -279,9 +273,6 @@
     <t>Actress</t>
   </si>
   <si>
-    <t>Producesr</t>
-  </si>
-  <si>
     <t>Side Actor</t>
   </si>
   <si>
@@ -325,6 +316,12 @@
   </si>
   <si>
     <t>Peyton Reed</t>
+  </si>
+  <si>
+    <t>GENRES TABLE</t>
+  </si>
+  <si>
+    <t>Producer</t>
   </si>
 </sst>
 </file>
@@ -531,11 +528,11 @@
   <autoFilter ref="B3:G9" xr:uid="{CB1AB2F5-2334-442D-9DF7-7E17609322D2}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{1EEF758B-E3DE-436D-91FE-5376F9BF8D41}" name="Movie ID (pk)" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{2A0EE61E-5364-45BC-9420-A7A15AF44AA1}" name="Title" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{DA4E3A52-68D7-498F-9431-ADDFA99494F9}" name="Release Year" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{11FF85AF-D1DD-46E2-888F-9440D71F5617}" name="Description" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{5595BA6C-4214-4063-ACB6-812405FCCF8F}" name="Runtine" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{3CF750ED-346D-4A88-93BA-C082A9B56045}" name="Director ID(FK)" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{2A0EE61E-5364-45BC-9420-A7A15AF44AA1}" name="Title" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{DA4E3A52-68D7-498F-9431-ADDFA99494F9}" name="Release Year" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{11FF85AF-D1DD-46E2-888F-9440D71F5617}" name="Description" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{5595BA6C-4214-4063-ACB6-812405FCCF8F}" name="Runtine" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{3CF750ED-346D-4A88-93BA-C082A9B56045}" name="Director ID(FK)" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -545,8 +542,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4FAA4087-30BB-488A-9C75-E74168F660BC}" name="Table11" displayName="Table11" ref="B103:C110" totalsRowShown="0">
   <autoFilter ref="B103:C110" xr:uid="{4FAA4087-30BB-488A-9C75-E74168F660BC}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5626B7B8-BA67-4E51-8C38-D61D9A07A9D0}" name="ID (pk)" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{AB081E5B-44A8-4CDF-8752-9AC1A811685E}" name="Name" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{5626B7B8-BA67-4E51-8C38-D61D9A07A9D0}" name="ID (pk)" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{AB081E5B-44A8-4CDF-8752-9AC1A811685E}" name="Name" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -556,10 +553,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{93A851F6-5654-4E36-BF33-28C9C7755ABC}" name="Table12" displayName="Table12" ref="B114:E127" totalsRowShown="0">
   <autoFilter ref="B114:E127" xr:uid="{93A851F6-5654-4E36-BF33-28C9C7755ABC}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8B16C3EB-93F4-4317-AAD2-9704338E0D7D}" name="ID (PK)" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{2A14A0D7-D3DC-4212-9BE0-029D847EBF7B}" name="Movie ID (fk)" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{B4D96020-C47A-4C52-941F-607F9B6F9E36}" name="Artist ID (fk)" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{6F2B6C22-3CF5-40EF-8AAD-B4F3B25EC732}" name="Role ID (fk)" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{8B16C3EB-93F4-4317-AAD2-9704338E0D7D}" name="ID (PK)" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{2A14A0D7-D3DC-4212-9BE0-029D847EBF7B}" name="Movie ID (fk)" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{B4D96020-C47A-4C52-941F-607F9B6F9E36}" name="Artist ID (fk)" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{6F2B6C22-3CF5-40EF-8AAD-B4F3B25EC732}" name="Role ID (fk)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -569,10 +566,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CA2FC419-763D-4F93-8D69-B027F4E8B54D}" name="Table2" displayName="Table2" ref="B12:E22" totalsRowShown="0">
   <autoFilter ref="B12:E22" xr:uid="{CA2FC419-763D-4F93-8D69-B027F4E8B54D}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{353CAD33-01BD-4F6D-B792-5F699BC3F864}" name="ID (pk)" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{84BFC39E-DD3C-4FF6-81F2-6D5C0E48D87D}" name="Movie ID (fk)" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{7E001355-C9A3-47D6-B269-EDB336165D65}" name="Media Type" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{620DFA1E-3DD2-4DC2-8863-555824646F73}" name="URL" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{353CAD33-01BD-4F6D-B792-5F699BC3F864}" name="ID (pk)" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{84BFC39E-DD3C-4FF6-81F2-6D5C0E48D87D}" name="Movie ID (fk)" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{7E001355-C9A3-47D6-B269-EDB336165D65}" name="Media Type" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{620DFA1E-3DD2-4DC2-8863-555824646F73}" name="URL" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -582,8 +579,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0D50C201-AD28-419E-AA57-D12318096B91}" name="Table3" displayName="Table3" ref="B26:C32" totalsRowShown="0">
   <autoFilter ref="B26:C32" xr:uid="{0D50C201-AD28-419E-AA57-D12318096B91}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5FB867C9-CF7B-450D-B2D8-8A1086BD9B21}" name="Column1" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{8ED5B02A-A789-4638-AC04-63E39E010AC1}" name="Name" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{5FB867C9-CF7B-450D-B2D8-8A1086BD9B21}" name="ID(pk)" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{8ED5B02A-A789-4638-AC04-63E39E010AC1}" name="Name" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -593,9 +590,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D2F39710-F9C6-4AC2-9744-55A05F8F77E2}" name="Table4" displayName="Table4" ref="B36:D47" totalsRowShown="0">
   <autoFilter ref="B36:D47" xr:uid="{D2F39710-F9C6-4AC2-9744-55A05F8F77E2}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8C57511D-6AE4-4652-A43E-F7F2BB9A8BBF}" name="ID()" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{67A20E9E-E9BD-4327-A20B-47C9B1A470F2}" name="Movie ID(fk)" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{D1BD08CF-D933-4BB6-83E6-57B295AE654B}" name="Genre ID(fk)" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{8C57511D-6AE4-4652-A43E-F7F2BB9A8BBF}" name="ID()" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{67A20E9E-E9BD-4327-A20B-47C9B1A470F2}" name="Movie ID(fk)" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{D1BD08CF-D933-4BB6-83E6-57B295AE654B}" name="Genre ID(fk)" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -605,11 +602,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F53760CF-8563-4AE8-98B9-1C47C7D827A4}" name="Table6" displayName="Table6" ref="B50:F57" totalsRowShown="0">
   <autoFilter ref="B50:F57" xr:uid="{F53760CF-8563-4AE8-98B9-1C47C7D827A4}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{15D84103-06BF-4F86-AEE3-7CD27A306516}" name="ID(pk)" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{7DE73829-EBE9-4DA2-BA82-5AEBFCFDC9C7}" name="Movie ID(fk)" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{60F10884-88E5-468E-8CF7-5F152F8FF342}" name="User ID (fk)" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{AA93CD29-9B00-4313-87A8-B8A0280DB370}" name="Rating" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{1CC32763-47C5-4DCC-B4BA-DE6F989A30CE}" name="Comment" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{15D84103-06BF-4F86-AEE3-7CD27A306516}" name="ID(pk)" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{7DE73829-EBE9-4DA2-BA82-5AEBFCFDC9C7}" name="Movie ID(fk)" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{60F10884-88E5-468E-8CF7-5F152F8FF342}" name="User ID (fk)" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{AA93CD29-9B00-4313-87A8-B8A0280DB370}" name="Rating" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{1CC32763-47C5-4DCC-B4BA-DE6F989A30CE}" name="Comment" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -619,10 +616,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A98B48C3-94F7-49D8-AE43-D831A02D0B8D}" name="Table7" displayName="Table7" ref="B61:E66" totalsRowShown="0">
   <autoFilter ref="B61:E66" xr:uid="{A98B48C3-94F7-49D8-AE43-D831A02D0B8D}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{48265086-4CDA-46A3-968D-40AADE4F9339}" name="ID(pk)" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{BA098A80-B77B-4AC1-97CA-4A3CFC6ACCFB}" name="Name" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{475B1FB3-A1B3-4861-81D4-7243BB536BAE}" name="Email" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{D4127CB2-A8A7-442B-A564-728D308F54ED}" name="Password" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{48265086-4CDA-46A3-968D-40AADE4F9339}" name="ID(pk)" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{BA098A80-B77B-4AC1-97CA-4A3CFC6ACCFB}" name="Name" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{475B1FB3-A1B3-4861-81D4-7243BB536BAE}" name="Email" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{D4127CB2-A8A7-442B-A564-728D308F54ED}" name="Password" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -632,9 +629,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{8A83714B-EC0E-44E4-9131-A78DD6F80336}" name="Table8" displayName="Table8" ref="B70:D80" totalsRowShown="0">
   <autoFilter ref="B70:D80" xr:uid="{8A83714B-EC0E-44E4-9131-A78DD6F80336}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{48AF6828-3CC4-4EF6-AC72-62CA6948BE4D}" name="ID(pk)" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{B7ABF369-2566-4360-93F6-71FD5C388AA3}" name="Name" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{84F92F27-D9FF-47BD-AE54-FC6AD49C6E72}" name="Gender" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{48AF6828-3CC4-4EF6-AC72-62CA6948BE4D}" name="ID(pk)" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{B7ABF369-2566-4360-93F6-71FD5C388AA3}" name="Name" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{84F92F27-D9FF-47BD-AE54-FC6AD49C6E72}" name="Gender" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -644,8 +641,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{AD180B27-69BC-426D-9033-35356E023814}" name="Table9" displayName="Table9" ref="B84:C88" totalsRowShown="0">
   <autoFilter ref="B84:C88" xr:uid="{AD180B27-69BC-426D-9033-35356E023814}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EFD4A6C4-A247-4F81-90E1-16D99C104D24}" name="ID (pk)" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{2B7CEB4E-063F-49CD-BA21-32E15BD1397A}" name="Skill" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{EFD4A6C4-A247-4F81-90E1-16D99C104D24}" name="ID (pk)" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{2B7CEB4E-063F-49CD-BA21-32E15BD1397A}" name="Skill" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -655,9 +652,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{29503782-3084-4221-9AD8-AF8554725460}" name="Table10" displayName="Table10" ref="B91:D100" totalsRowShown="0">
   <autoFilter ref="B91:D100" xr:uid="{29503782-3084-4221-9AD8-AF8554725460}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{BF9312CE-8ED2-475E-8497-0E7A16924EFD}" name="ID (pk)" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{06A681C5-588D-42DC-89A8-E37AA37F15D0}" name="Artist ID(fk)" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{3BCD464E-A8DA-4527-8D16-659BBA6DDE3E}" name="Skill ID (fk)" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{BF9312CE-8ED2-475E-8497-0E7A16924EFD}" name="ID (pk)" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{06A681C5-588D-42DC-89A8-E37AA37F15D0}" name="Artist ID(fk)" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{3BCD464E-A8DA-4527-8D16-659BBA6DDE3E}" name="Skill ID (fk)" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -928,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G106" sqref="G106"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -944,7 +941,7 @@
   <sheetData>
     <row r="2" spans="2:7" ht="21" x14ac:dyDescent="0.5">
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -983,13 +980,13 @@
         <v>1994</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F4" s="1">
         <v>184</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
@@ -1003,13 +1000,13 @@
         <v>2023</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F5" s="1">
         <v>192</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.35">
@@ -1023,13 +1020,13 @@
         <v>2012</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F6" s="1">
         <v>193</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
@@ -1043,13 +1040,13 @@
         <v>2009</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F7" s="1">
         <v>204</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
@@ -1063,18 +1060,18 @@
         <v>2013</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F8" s="1">
         <v>190</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="21" x14ac:dyDescent="0.5">
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1082,16 +1079,16 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.35">
@@ -1102,10 +1099,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.35">
@@ -1116,10 +1113,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.35">
@@ -1130,10 +1127,10 @@
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.35">
@@ -1144,10 +1141,10 @@
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
@@ -1158,10 +1155,10 @@
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
@@ -1172,10 +1169,10 @@
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
@@ -1186,10 +1183,10 @@
         <v>4</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
@@ -1200,10 +1197,10 @@
         <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
@@ -1214,10 +1211,10 @@
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.35">
@@ -1228,24 +1225,24 @@
         <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="21" x14ac:dyDescent="0.5">
       <c r="B25" s="3" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.35">
@@ -1253,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.35">
@@ -1261,7 +1258,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
@@ -1269,7 +1266,7 @@
         <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">
@@ -1277,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
@@ -1285,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.35">
@@ -1293,24 +1290,24 @@
         <v>6</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="21" x14ac:dyDescent="0.5">
       <c r="B35" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C35" s="3"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.35">
@@ -1436,7 +1433,7 @@
     </row>
     <row r="49" spans="2:6" ht="21" x14ac:dyDescent="0.5">
       <c r="B49" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -1445,19 +1442,19 @@
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.35">
@@ -1474,7 +1471,7 @@
         <v>8</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.35">
@@ -1491,7 +1488,7 @@
         <v>7</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.35">
@@ -1508,7 +1505,7 @@
         <v>9</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.35">
@@ -1525,7 +1522,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.35">
@@ -1542,7 +1539,7 @@
         <v>6</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.35">
@@ -1559,7 +1556,7 @@
         <v>7</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.35">
@@ -1576,12 +1573,12 @@
         <v>7.5</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="2:6" ht="21" x14ac:dyDescent="0.5">
       <c r="B60" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -1589,16 +1586,16 @@
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B61" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.35">
@@ -1606,10 +1603,10 @@
         <v>1</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E62" s="1">
         <v>123456</v>
@@ -1620,10 +1617,10 @@
         <v>2</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E63" s="1">
         <v>123456</v>
@@ -1634,10 +1631,10 @@
         <v>3</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E64" s="1">
         <v>123456</v>
@@ -1648,10 +1645,10 @@
         <v>4</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E65" s="1">
         <v>123456</v>
@@ -1662,10 +1659,10 @@
         <v>5</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E66" s="1">
         <v>123456</v>
@@ -1673,20 +1670,20 @@
     </row>
     <row r="69" spans="2:5" ht="21" x14ac:dyDescent="0.5">
       <c r="B69" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B70" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.35">
@@ -1694,10 +1691,10 @@
         <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.35">
@@ -1705,10 +1702,10 @@
         <v>2</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.35">
@@ -1716,10 +1713,10 @@
         <v>3</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.35">
@@ -1727,10 +1724,10 @@
         <v>4</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.35">
@@ -1738,10 +1735,10 @@
         <v>5</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.35">
@@ -1749,10 +1746,10 @@
         <v>6</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.35">
@@ -1760,10 +1757,10 @@
         <v>7</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.35">
@@ -1771,10 +1768,10 @@
         <v>8</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.35">
@@ -1782,10 +1779,10 @@
         <v>9</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.35">
@@ -1793,24 +1790,24 @@
         <v>10</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="2:4" ht="21" x14ac:dyDescent="0.5">
       <c r="B83" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C83" s="3"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B84" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.35">
@@ -1818,7 +1815,7 @@
         <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.35">
@@ -1826,7 +1823,7 @@
         <v>2</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.35">
@@ -1834,7 +1831,7 @@
         <v>3</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.35">
@@ -1842,25 +1839,25 @@
         <v>4</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90" spans="2:4" ht="21" x14ac:dyDescent="0.5">
       <c r="B90" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B91" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.35">
@@ -1964,16 +1961,16 @@
     </row>
     <row r="102" spans="2:4" ht="21" x14ac:dyDescent="0.5">
       <c r="B102" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C102" s="3"/>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B103" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.35">
@@ -1981,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.35">
@@ -1989,7 +1986,7 @@
         <v>2</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.35">
@@ -1997,7 +1994,7 @@
         <v>3</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.35">
@@ -2005,7 +2002,7 @@
         <v>4</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.35">
@@ -2013,7 +2010,7 @@
         <v>5</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.35">
@@ -2021,7 +2018,7 @@
         <v>6</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.35">
@@ -2029,12 +2026,12 @@
         <v>7</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="113" spans="2:5" ht="21" x14ac:dyDescent="0.5">
       <c r="B113" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -2042,16 +2039,16 @@
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B114" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.35">
@@ -2188,7 +2185,7 @@
         <v>4</v>
       </c>
       <c r="D124" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E124" s="1">
         <v>1</v>
@@ -2243,12 +2240,12 @@
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B102:C102"/>
     <mergeCell ref="B113:E113"/>
+    <mergeCell ref="B60:E60"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B60:E60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
